--- a/biology/Microbiologie/Rabdiophrys/Rabdiophrys.xlsx
+++ b/biology/Microbiologie/Rabdiophrys/Rabdiophrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rabdiophrys est un genre d'holomycètes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rabdiophrys est un genre d'holomycètes.
 L'espèce type est Rabdiophrys anulifera.
 La cellule mesure de 25 à 40 µm de diamètre ; elle est recouverte d'écailles en formes de plaquette et d'épine. Les plaquettes de 1,5 à 5,5 µm se composent de deux couches liées à leur périphérie. La plaque interne présente de nombreuses petites perforations et l'externe de 1 à 10 pores de plus grande taille. Les écailles en épine sont de structure et de longueur variables (0,8-12,2 µm) ; l'épine est creuse. Dans le cytoplasme on distingue de gros granules et de grandes vacuoles alimentaires. Les filopodes sont très fins.
 </t>
@@ -513,14 +525,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rabdiophrys anulifera Rainer, 1968 [syn. Pinaciophora pinea Nicholls, 1983 ?]
 Rabdiophrys columna (Croome, 1987) Roijackers et Siemensma, 1988
 Rabdiophrys monopora (Thomsen, 1978) Roijackers et Siemensma, 1988
 Thomas Cavalier-Smith ajoute :
 Rabdiophrys pinea (Nicholls, 1983) Cavalier-Smith, 2012
-s'opposant à l'idée que ce ne soit qu'un synonyme de R. anulifera[2].
+s'opposant à l'idée que ce ne soit qu'un synonyme de R. anulifera.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Cavalier-Smith regroupe ce genre avec Paraluffisphaera (Paraluffisphaera tuba) dans une famille Rabdiophryidae Cavalier-Smith, 2012[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Cavalier-Smith regroupe ce genre avec Paraluffisphaera (Paraluffisphaera tuba) dans une famille Rabdiophryidae Cavalier-Smith, 2012.
 </t>
         </is>
       </c>
